--- a/biology/Botanique/Salvadoraceae/Salvadoraceae.xlsx
+++ b/biology/Botanique/Salvadoraceae/Salvadoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Salvadoraceae (les Salvadoracées) sont une famille de plantes à fleurs dicotylédones comprenant une dizaine d'espèces réparties en 2 à 3 genres.
 Ce sont des arbres ou des arbustes, parfois épineux, parfois rampants, des milieux arides ou salés, des régions subtropicales à tropicales. On les rencontre en Afrique, à Madagascar, au sud de l'Asie et en Malaisie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Salvadora, nom donné en hommage  au pharmacien et botaniste Catalan Juan Salvador y Bosca (ca) (1598–1681)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Salvadora, nom donné en hommage  au pharmacien et botaniste Catalan Juan Salvador y Bosca (ca) (1598–1681).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] situait cette famille dans l'ordre des Celastrales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) situait cette famille dans l'ordre des Celastrales.
 La classification phylogénétique situe cette famille dans l'ordre des Brassicales.
 </t>
         </is>
@@ -575,15 +591,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 août 2015) :
 Dobera
 Salvadora
-Selon NCBI  (4 août 2015)[4] :
+Selon NCBI  (4 août 2015) :
 Azima (en)
 Salvadora
-Selon DELTA Angio           (4 août 2015)[5] :
+Selon DELTA Angio           (4 août 2015) :
 Azima
 Dobera
 Salvadora</t>
@@ -614,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) :
 genre Azima
 Azima tetracantha
 genre Salvadora
